--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>29719234.949999999</v>
+        <v>31643822.670000002</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>31643822.670000002</v>
+        <v>31721401.82</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>31721401.82</v>
+        <v>31729412.969999999</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -355,9 +355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -366,7 +364,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>31729412.969999999</v>
+        <v>29107748.710000001</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -355,7 +355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -364,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>29107748.710000001</v>
+        <v>27960561.949999999</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>27960561.949999999</v>
+        <v>28145721.23</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>28145721.23</v>
+        <v>28230417.309999999</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>28230417.309999999</v>
+        <v>26117235.809999999</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>26117235.809999999</v>
+        <v>26055758.350000001</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>26055758.350000001</v>
+        <v>24308029.140000001</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>24308029.140000001</v>
+        <v>27127085.91</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>27127085.91</v>
+        <v>30412808.010000002</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>30412808.010000002</v>
+        <v>31473073.68</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>31473073.68</v>
+        <v>30542690.449999999</v>
       </c>
     </row>
   </sheetData>

--- a/solen_borc.xlsx
+++ b/solen_borc.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -366,7 +366,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="92.25">
       <c r="A1" s="1">
-        <v>30542690.449999999</v>
+        <v>32497578.699999999</v>
       </c>
     </row>
   </sheetData>
